--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3028147.85843224</v>
+        <v>3023889.592779006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>254.0878966558628</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.93856390941626</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916584</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.309700321954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>171.203694736628</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>170.333396656685</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>250.3509461673135</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>39.45664893657239</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>174.5735387000701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>56.08889633518815</v>
+        <v>77.67151627042726</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>109.4490582697247</v>
       </c>
       <c r="G8" t="n">
-        <v>211.4315000927066</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>193.0949395150693</v>
+        <v>229.7787317867791</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>55.30088041042192</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>133.3722917337063</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>251.2289675641665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>29.67382008037395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2377,10 +2377,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,13 +2611,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>60.78102717027877</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>28.87857325624034</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.64226186542875</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.94196613735211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.1190787273707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>168.97752971242</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>15.09910835322215</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>795.2032617894384</v>
+        <v>1892.201695448966</v>
       </c>
       <c r="C2" t="n">
-        <v>795.2032617894384</v>
+        <v>1523.239178508555</v>
       </c>
       <c r="D2" t="n">
-        <v>795.2032617894384</v>
+        <v>1266.584737442027</v>
       </c>
       <c r="E2" t="n">
-        <v>795.2032617894384</v>
+        <v>880.7964848437823</v>
       </c>
       <c r="F2" t="n">
-        <v>384.2173569998309</v>
+        <v>469.8105800541747</v>
       </c>
       <c r="G2" t="n">
-        <v>371.148100525673</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
         <v>52.70091953961285</v>
@@ -4330,22 +4330,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>72.11519083088507</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>151.9506691118217</v>
       </c>
       <c r="L2" t="n">
-        <v>699.7444981326171</v>
+        <v>381.1637770428506</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.69704205424</v>
+        <v>1009.116320964473</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094874</v>
+        <v>1632.597796005107</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2176.146035202201</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.368946827793</v>
+        <v>2223.264582792537</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.306059484222</v>
+        <v>1892.201695448966</v>
       </c>
       <c r="W2" t="n">
-        <v>1324.537404214108</v>
+        <v>1892.201695448966</v>
       </c>
       <c r="X2" t="n">
-        <v>951.0716459530283</v>
+        <v>1892.201695448966</v>
       </c>
       <c r="Y2" t="n">
-        <v>795.2032617894384</v>
+        <v>1892.201695448966</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
         <v>792.1973789123786</v>
@@ -4403,7 +4403,7 @@
         <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.00881771507485</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4415,46 +4415,46 @@
         <v>380.2766518524141</v>
       </c>
       <c r="L3" t="n">
-        <v>515.0151037395837</v>
+        <v>882.147045590008</v>
       </c>
       <c r="M3" t="n">
-        <v>1152.653403174472</v>
+        <v>1519.785345024896</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1715.458095681189</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2262.164335642192</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213574</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.6243689617675</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="C4" t="n">
-        <v>327.6243689617675</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="D4" t="n">
-        <v>177.5077295494317</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="E4" t="n">
-        <v>177.5077295494317</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="F4" t="n">
-        <v>177.5077295494317</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="G4" t="n">
-        <v>177.5077295494317</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="H4" t="n">
-        <v>177.5077295494317</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961285</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>1643.966933298788</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>1743.897338472327</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>1927.300286863088</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>2131.062104044786</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>2335.413537065812</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>2508.148865184117</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>2632.433097110493</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T4" t="n">
-        <v>871.726027204615</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U4" t="n">
-        <v>871.726027204615</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0415389987281</v>
+        <v>2382.166233377296</v>
       </c>
       <c r="W4" t="n">
-        <v>327.6243689617675</v>
+        <v>2092.749063340335</v>
       </c>
       <c r="X4" t="n">
-        <v>327.6243689617675</v>
+        <v>1864.759512442318</v>
       </c>
       <c r="Y4" t="n">
-        <v>327.6243689617675</v>
+        <v>1643.966933298788</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.7051658377195</v>
+        <v>2033.646275184232</v>
       </c>
       <c r="C5" t="n">
-        <v>776.7051658377195</v>
+        <v>1664.68375824382</v>
       </c>
       <c r="D5" t="n">
-        <v>776.7051658377195</v>
+        <v>1306.41805963707</v>
       </c>
       <c r="E5" t="n">
-        <v>390.9169132394753</v>
+        <v>920.6298070388257</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9714124902719</v>
+        <v>509.6439022492181</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>92.55612048564558</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>92.55612048564558</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>106.1758934388436</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>188.739048013436</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>741.5523062596352</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M5" t="n">
-        <v>1373.270117242947</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N5" t="n">
-        <v>2000.577785302793</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.276487146762</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W5" t="n">
-        <v>1326.507831876648</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="X5" t="n">
-        <v>953.0420736155681</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="Y5" t="n">
-        <v>776.7051658377195</v>
+        <v>2420.246115248354</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L6" t="n">
-        <v>661.4641707288301</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.009520195935</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N6" t="n">
-        <v>1954.183399498644</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2503.619408251367</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.3563703832372</v>
+        <v>740.5091748881206</v>
       </c>
       <c r="C7" t="n">
-        <v>109.3563703832372</v>
+        <v>571.5729919602137</v>
       </c>
       <c r="D7" t="n">
-        <v>109.3563703832372</v>
+        <v>421.4563525478779</v>
       </c>
       <c r="E7" t="n">
-        <v>109.3563703832372</v>
+        <v>273.5432589654848</v>
       </c>
       <c r="F7" t="n">
-        <v>109.3563703832372</v>
+        <v>273.5432589654848</v>
       </c>
       <c r="G7" t="n">
-        <v>109.3563703832372</v>
+        <v>273.5432589654848</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961285</v>
+        <v>195.0871819246492</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>619.566119563728</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U7" t="n">
-        <v>619.566119563728</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="V7" t="n">
-        <v>619.566119563728</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="W7" t="n">
-        <v>330.1489495267674</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="X7" t="n">
-        <v>330.1489495267674</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="Y7" t="n">
-        <v>109.3563703832372</v>
+        <v>922.1576397183603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1147.657332238176</v>
+        <v>176.3029015756346</v>
       </c>
       <c r="C8" t="n">
-        <v>778.6948152977645</v>
+        <v>176.3029015756346</v>
       </c>
       <c r="D8" t="n">
-        <v>778.6948152977645</v>
+        <v>176.3029015756346</v>
       </c>
       <c r="E8" t="n">
-        <v>392.9065626995203</v>
+        <v>176.3029015756346</v>
       </c>
       <c r="F8" t="n">
-        <v>385.9610619503168</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4837,19 +4837,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.031077745182</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V8" t="n">
-        <v>2264.031077745182</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W8" t="n">
-        <v>1911.262422475068</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X8" t="n">
-        <v>1537.796664213988</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y8" t="n">
-        <v>1147.657332238176</v>
+        <v>562.9027416397564</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1094.033005337444</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>501.4830495811603</v>
+        <v>820.535871921403</v>
       </c>
       <c r="X10" t="n">
-        <v>273.4934986831429</v>
+        <v>592.5463210233856</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.70091953961285</v>
+        <v>371.7537418798555</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600109</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>231.7628415621006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>231.7628415621006</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>228.5361496476752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>228.5361496476752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>228.5361496476752</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3025.687952571558</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.932614305899</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4151.857387650097</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3897.17289944421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3643.406265541012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3415.416714642995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3194.624135499465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.58852738579</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2726.914133601549</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>3324.292621228101</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>3951.890584782708</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4503.800315021995</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,16 +5998,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852254</v>
@@ -6025,7 +6025,7 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2453.684166529966</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2453.684166529966</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3051.062654156518</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711125</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950412</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153951</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741615</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159222</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661312</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>198.744407872558</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4262.384993990606</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953645</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055628</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590557</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761778</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.325458604698</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159305</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8431516380886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>591.7265122257528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>443.8134186433597</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>296.9234711454493</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6548,16 +6548,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924056</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.889214996149</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583813</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.85948200142</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.96953450351</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4594.61717263459</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4375.015707657531</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4085.940481001729</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3831.255992795843</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3831.255992795843</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.266441897826</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754296</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>189.4149073564858</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3200.825397924056</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.889214996149</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583813</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.85948200142</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053497</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4507.978318053497</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>4218.903091397695</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>3964.218603191808</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>3674.801433154847</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3446.81188225683</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3226.0193031133</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.841029837709</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913445</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129204</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755756</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>4101.537227310362</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2453.684166529967</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2453.684166529967</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3051.062654156519</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>3678.660617711126</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>803.2707707770319</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>653.1541313646961</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>505.241037782303</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>358.3510902843926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>191.1549909992726</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>416.0091887065238</v>
+        <v>94.21048053504305</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>7.328121188872885</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>89.88665060699313</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>247.5863616793217</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.56638778368432</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,10 +8230,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="L6" t="n">
-        <v>288.1480622760309</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>292.7933231452029</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>84.99383243580198</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.922421112517611</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>35.29403077242455</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>36.41624546988358</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>104.7431111219901</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.1477127454042</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>70.88187642684009</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.8900140445852</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.71290145456655</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>125.1956044930017</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>798987.4284289562</v>
+        <v>798987.4284289563</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365051</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365052</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365055</v>
@@ -26352,10 +26352,10 @@
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918874</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008500201</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909053</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26429,37 +26429,37 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707421</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707414</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707415</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707419</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707405</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366962.6448686693</v>
+        <v>-366962.644868669</v>
       </c>
       <c r="C6" t="n">
-        <v>416469.3671170465</v>
+        <v>416469.367117046</v>
       </c>
       <c r="D6" t="n">
-        <v>421375.6141255463</v>
+        <v>421375.6141255461</v>
       </c>
       <c r="E6" t="n">
-        <v>-197633.6918606939</v>
+        <v>-197981.0711150502</v>
       </c>
       <c r="F6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="G6" t="n">
-        <v>578054.655415891</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="H6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615344</v>
       </c>
       <c r="I6" t="n">
-        <v>578054.6554158909</v>
+        <v>577707.2761615344</v>
       </c>
       <c r="J6" t="n">
-        <v>405693.6630156102</v>
+        <v>405346.2837612532</v>
       </c>
       <c r="K6" t="n">
-        <v>578054.6554158907</v>
+        <v>577707.276161534</v>
       </c>
       <c r="L6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="M6" t="n">
-        <v>449977.0586001774</v>
+        <v>449629.6793458203</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.6554158909</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="P6" t="n">
-        <v>578054.6554158912</v>
+        <v>577707.2761615341</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225496</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225496</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915515451</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>100.5951449648202</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.9282383340996</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.504804251687773</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687496</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.382756997752</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>53.0810215145703</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.786697156514549</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>79.0393919573179</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>211.6643999559834</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>96.62320033404441</v>
+        <v>75.04058039880529</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>297.4269874719867</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>201.4854038532302</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>93.42805882152169</v>
+        <v>56.74426654981187</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29097,10 +29097,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718791</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956757</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447376</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683754</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984519</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844684</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451699</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024185</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105522</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193695</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645652</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602331</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031699</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
         <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770769</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777938</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.260780055519</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305502</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102895</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704978</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808495</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489525</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361687</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910959</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820279</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908707</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753064</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577932</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753761</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892078</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314784</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646947</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934102</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308981</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983902</v>
       </c>
       <c r="P4" t="n">
         <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780499</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776933</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472176</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.5311712570262</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139838</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2370040367367</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,25 +33025,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>488.7223436347921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33499,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.745607266772</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>209.2370040367367</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>19.61037504168911</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347131</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000210052</v>
+        <v>231.5283918495242</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>634.2954989107296</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178118</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>549.0386254516109</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>430.5368321355826</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>32.99846259011574</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937386</v>
       </c>
       <c r="L3" t="n">
-        <v>136.0994463506763</v>
+        <v>506.9397916541352</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>644.079090338271</v>
       </c>
       <c r="N3" t="n">
-        <v>287.5358936941579</v>
+        <v>197.6492430871645</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131346</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>355.160854013944</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>21.48726855014721</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250108</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101267</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124299</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110601</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>54.01512515073816</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34950,10 +34950,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622273</v>
       </c>
       <c r="L6" t="n">
-        <v>426.763817847439</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>474.10376390743</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35412,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>71.3955650623777</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>350.1679638549179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>71.3955650623777</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3023889.592779006</v>
+        <v>3025650.123081791</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8660861.124314507</v>
+        <v>8660861.124314506</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>254.0878966558628</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916584</v>
+        <v>1.360597680916783</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.99642154573786</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370739</v>
+        <v>44.34001494201959</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.11551727184605</v>
+        <v>21.62032152353366</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37.25336687943643</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>250.3509461673135</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>156.2356857244041</v>
       </c>
       <c r="I5" t="n">
-        <v>39.45664893657239</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>77.67151627042726</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>202.3860496764734</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>109.4490582697247</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>300.4125279702509</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>91.87120646840046</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>229.7787317867791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763403</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.201695448966</v>
+        <v>1635.547254382438</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.239178508555</v>
+        <v>1266.584737442027</v>
       </c>
       <c r="D2" t="n">
         <v>1266.584737442027</v>
@@ -4330,22 +4330,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088507</v>
+        <v>72.11519083088479</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118217</v>
+        <v>151.950669111821</v>
       </c>
       <c r="L2" t="n">
-        <v>381.1637770428506</v>
+        <v>381.1637770428534</v>
       </c>
       <c r="M2" t="n">
-        <v>1009.116320964473</v>
+        <v>1009.116320964475</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.597796005107</v>
+        <v>1632.597796005108</v>
       </c>
       <c r="O2" t="n">
-        <v>2176.146035202201</v>
+        <v>2176.146035202202</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.958036347466</v>
+        <v>2610.442927256749</v>
       </c>
       <c r="U2" t="n">
-        <v>2223.264582792537</v>
+        <v>2356.749473701821</v>
       </c>
       <c r="V2" t="n">
-        <v>1892.201695448966</v>
+        <v>2025.68658635825</v>
       </c>
       <c r="W2" t="n">
-        <v>1892.201695448966</v>
+        <v>2025.68658635825</v>
       </c>
       <c r="X2" t="n">
-        <v>1892.201695448966</v>
+        <v>2025.68658635825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.201695448966</v>
+        <v>1635.547254382438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507485</v>
+        <v>97.48881342044072</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,49 +4412,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>380.2766518524138</v>
       </c>
       <c r="L3" t="n">
-        <v>882.147045590008</v>
+        <v>882.1470455900073</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.785345024896</v>
+        <v>1519.785345024895</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.458095681189</v>
+        <v>2142.51577496919</v>
       </c>
       <c r="O3" t="n">
-        <v>2262.164335642192</v>
+        <v>2299.29831884623</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.727272665647</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1643.966933298788</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C4" t="n">
-        <v>1643.966933298788</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D4" t="n">
-        <v>1643.966933298788</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E4" t="n">
-        <v>1643.966933298788</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F4" t="n">
-        <v>1643.966933298788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>1643.966933298788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>1643.966933298788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>1643.966933298788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>1643.966933298788</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1743.897338472327</v>
+        <v>152.6313247131523</v>
       </c>
       <c r="L4" t="n">
-        <v>1927.300286863088</v>
+        <v>336.0342731039128</v>
       </c>
       <c r="M4" t="n">
-        <v>2131.062104044786</v>
+        <v>539.7960902856108</v>
       </c>
       <c r="N4" t="n">
-        <v>2335.413537065812</v>
+        <v>744.147523306636</v>
       </c>
       <c r="O4" t="n">
-        <v>2508.148865184117</v>
+        <v>916.8828514249415</v>
       </c>
       <c r="P4" t="n">
-        <v>2632.433097110493</v>
+        <v>1041.167083351317</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221467</v>
       </c>
       <c r="R4" t="n">
-        <v>2635.045976980643</v>
+        <v>1006.150299706884</v>
       </c>
       <c r="S4" t="n">
-        <v>2635.045976980643</v>
+        <v>1006.150299706884</v>
       </c>
       <c r="T4" t="n">
-        <v>2635.045976980643</v>
+        <v>1006.150299706884</v>
       </c>
       <c r="U4" t="n">
-        <v>2635.045976980643</v>
+        <v>716.9975879725012</v>
       </c>
       <c r="V4" t="n">
-        <v>2382.166233377296</v>
+        <v>716.9975879725012</v>
       </c>
       <c r="W4" t="n">
-        <v>2092.749063340335</v>
+        <v>427.5804179355405</v>
       </c>
       <c r="X4" t="n">
-        <v>1864.759512442318</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1643.966933298788</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2033.646275184232</v>
+        <v>1527.243917597138</v>
       </c>
       <c r="C5" t="n">
-        <v>1664.68375824382</v>
+        <v>1158.281400656727</v>
       </c>
       <c r="D5" t="n">
-        <v>1306.41805963707</v>
+        <v>1158.281400656727</v>
       </c>
       <c r="E5" t="n">
-        <v>920.6298070388257</v>
+        <v>1158.281400656727</v>
       </c>
       <c r="F5" t="n">
-        <v>509.6439022492181</v>
+        <v>747.2954958671191</v>
       </c>
       <c r="G5" t="n">
-        <v>92.55612048564558</v>
+        <v>330.2077141035466</v>
       </c>
       <c r="H5" t="n">
-        <v>92.55612048564558</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4573,16 +4573,16 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>683.1408478992852</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1314.858658882597</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4597,22 +4597,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2420.246115248354</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.246115248354</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.246115248354</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2420.246115248354</v>
+        <v>1913.84375766126</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>740.5091748881206</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C7" t="n">
-        <v>571.5729919602137</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D7" t="n">
-        <v>421.4563525478779</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>273.5432589654848</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
-        <v>273.5432589654848</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>273.5432589654848</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X7" t="n">
-        <v>922.1576397183603</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.1576397183603</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.3029015756346</v>
+        <v>801.0095040659444</v>
       </c>
       <c r="C8" t="n">
-        <v>176.3029015756346</v>
+        <v>801.0095040659444</v>
       </c>
       <c r="D8" t="n">
-        <v>176.3029015756346</v>
+        <v>801.0095040659444</v>
       </c>
       <c r="E8" t="n">
-        <v>176.3029015756346</v>
+        <v>801.0095040659444</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>794.0640033167409</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.339374490333</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>1679.276487146762</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W8" t="n">
-        <v>1326.507831876648</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X8" t="n">
-        <v>953.0420736155681</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y8" t="n">
-        <v>562.9027416397564</v>
+        <v>1187.609344130066</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>989.1812241132636</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.7537418798555</v>
+        <v>314.4363009204495</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8175589519486</v>
+        <v>145.5001179925426</v>
       </c>
       <c r="D10" t="n">
         <v>52.70091953961285</v>
@@ -5001,13 +5001,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>820.535871921403</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X10" t="n">
-        <v>592.5463210233856</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.7537418798555</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5518,10 +5518,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5664,10 +5664,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,13 +5837,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,67 +5971,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>198.744407872558</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6600,16 +6600,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,34 +6621,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,31 +6858,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>94.21048053504305</v>
+        <v>94.21048053504711</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872885</v>
+        <v>7.328121188873055</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,16 +8069,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>431.371393220204</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>247.5863616793217</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-7.955339370490157e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988358</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="15">
@@ -26316,13 +26316,13 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
@@ -26331,25 +26331,25 @@
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918874</v>
+        <v>787455.5478918864</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500201</v>
+        <v>4906.247008500982</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909053</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,37 +26426,37 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.42449670733</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.424496707333</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707337</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.42449670736</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051732</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366962.644868669</v>
+        <v>-366962.6448686682</v>
       </c>
       <c r="C6" t="n">
-        <v>416469.367117046</v>
+        <v>416469.3671170456</v>
       </c>
       <c r="D6" t="n">
         <v>421375.6141255461</v>
       </c>
       <c r="E6" t="n">
-        <v>-197981.0711150502</v>
+        <v>-197668.4297861292</v>
       </c>
       <c r="F6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="G6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="H6" t="n">
-        <v>577707.2761615344</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="I6" t="n">
-        <v>577707.2761615344</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="J6" t="n">
-        <v>405346.2837612532</v>
+        <v>405658.9250901742</v>
       </c>
       <c r="K6" t="n">
-        <v>577707.276161534</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="L6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="M6" t="n">
-        <v>449629.6793458203</v>
+        <v>449942.3206747416</v>
       </c>
       <c r="N6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="O6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="P6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904553</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225488</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225488</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515451</v>
+        <v>5.387915915516309</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5951449648202</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>119.3310866359323</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>189.7502580593595</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687858</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.504804251687496</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
@@ -27560,7 +27560,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.382756997752</v>
+        <v>18.3827569977521</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>92.35667760996378</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27593,10 +27593,10 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.786697156514549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>158.8051983508115</v>
       </c>
       <c r="I5" t="n">
-        <v>79.0393919573179</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>75.04058039880529</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>23.3236057125637</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.4269874719867</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>112.5043759756859</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>56.7442665498119</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>56.74426654981187</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718791</v>
+        <v>2.364173605718787</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956757</v>
+        <v>24.21209293956754</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447376</v>
+        <v>91.14480293447365</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683754</v>
+        <v>200.6562795683751</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984519</v>
+        <v>300.7317482984515</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844684</v>
+        <v>373.0843262844679</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451699</v>
+        <v>415.1281986451693</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024185</v>
+        <v>421.8454069024179</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105522</v>
+        <v>398.3366556105516</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193695</v>
+        <v>339.971119719369</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645652</v>
+        <v>255.3041524645649</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602331</v>
+        <v>148.5085202602329</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031699</v>
+        <v>53.87360604031692</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903401</v>
+        <v>10.349169959034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575032</v>
+        <v>0.189133888457503</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682465</v>
+        <v>1.264944396682464</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111748</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770769</v>
+        <v>43.55181365770763</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777938</v>
+        <v>119.5095054777936</v>
       </c>
       <c r="K3" t="n">
-        <v>204.260780055519</v>
+        <v>204.2607800555187</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305502</v>
+        <v>274.6538261305498</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102895</v>
+        <v>320.5080605102891</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704978</v>
+        <v>328.9909551704974</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808495</v>
+        <v>300.9624503808491</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489525</v>
+        <v>241.5488997489522</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361687</v>
+        <v>161.4690426361685</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910959</v>
+        <v>78.53751262910947</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820279</v>
+        <v>23.49578736820276</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908707</v>
+        <v>5.0986135989087</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753064</v>
+        <v>0.08322002609753053</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942302</v>
+        <v>1.060486889942301</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577932</v>
+        <v>9.428692530577919</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753761</v>
+        <v>31.89173301753757</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892078</v>
+        <v>74.97642311892068</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314784</v>
+        <v>123.2092950314782</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646947</v>
+        <v>157.6654781646945</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934102</v>
+        <v>166.23614039341</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308981</v>
+        <v>162.2834165308979</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983902</v>
+        <v>149.89500149839</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.261068943567</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780499</v>
+        <v>88.80131584780487</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776933</v>
+        <v>47.68334688776927</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472176</v>
+        <v>18.48139425472173</v>
       </c>
       <c r="T4" t="n">
-        <v>4.5311712570262</v>
+        <v>4.531171257026194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139838</v>
+        <v>0.05784473945139831</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>574.2721069128561</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168911</v>
+        <v>19.61037504168883</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347131</v>
+        <v>80.64189725347092</v>
       </c>
       <c r="L2" t="n">
-        <v>231.5283918495242</v>
+        <v>231.5283918495277</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107296</v>
+        <v>634.2954989107291</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178118</v>
+        <v>629.7792677178111</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516109</v>
+        <v>549.0386254516103</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5368321355826</v>
+        <v>430.5368321355821</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011574</v>
+        <v>32.99846259011539</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937386</v>
+        <v>330.8845780937383</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541352</v>
+        <v>506.9397916541348</v>
       </c>
       <c r="M3" t="n">
-        <v>644.079090338271</v>
+        <v>644.0790903382706</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871645</v>
+        <v>629.0206363073681</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131346</v>
+        <v>158.3662059364046</v>
       </c>
       <c r="P3" t="n">
-        <v>355.160854013944</v>
+        <v>107.574492334622</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014721</v>
+        <v>231.5645562859961</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055955</v>
+        <v>100.9398032055954</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250108</v>
+        <v>185.2555034250106</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552508</v>
+        <v>205.8200173552505</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101267</v>
+        <v>206.4155889101264</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124299</v>
+        <v>174.4801294124297</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084606</v>
+        <v>125.5396282084605</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110601</v>
+        <v>2.639272596110487</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>289.865005493981</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
@@ -34953,7 +34953,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>493.3259074858033</v>
       </c>
       <c r="M9" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>431.6758624684117</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902408</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
